--- a/inst/models/growth_batch.xlsx
+++ b/inst/models/growth_batch.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="vars" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -79,10 +79,13 @@
     <t xml:space="preserve">yield</t>
   </si>
   <si>
+    <t xml:space="preserve">code</t>
+  </si>
+  <si>
     <t xml:space="preserve">dummy</t>
   </si>
   <si>
-    <t xml:space="preserve">NA</t>
+    <t xml:space="preserve">dummy &lt;- function() { NULL }</t>
   </si>
   <si>
     <t xml:space="preserve">rate</t>
@@ -111,7 +114,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -132,6 +135,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -182,16 +192,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -278,11 +296,11 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.44"/>
   </cols>
@@ -348,10 +366,10 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -427,13 +445,14 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="21.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -441,21 +460,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -477,10 +491,10 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.4"/>
@@ -499,7 +513,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -510,22 +524,22 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
